--- a/data/unchecked/manual_collect/bahrain/BahrainCaseStatistics_20200225.xlsx
+++ b/data/unchecked/manual_collect/bahrain/BahrainCaseStatistics_20200225.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\24日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\25日\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9223" uniqueCount="3297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9222" uniqueCount="3296">
   <si>
     <t>统计级别</t>
   </si>
@@ -10290,10 +10290,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://baijiahao.baidu.com/s?id=1659501348828666659&amp;wfr=spider&amp;for=pc</t>
-  </si>
-  <si>
-    <t>中新网2月25日电 据巴林通讯社报道，当地时间25日，巴林卫生部发布公告称，境内新增6例新型冠状病毒感染者，至此巴林境内共确诊8名新型冠状病毒感染者。</t>
+    <t>http://news.sina.com.cn/c/2020-02-26/doc-iimxxstf4368723.shtml</t>
   </si>
 </sst>
 </file>
@@ -10446,7 +10443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10498,6 +10495,9 @@
     <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10783,8 +10783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10965,12 +10965,12 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="24">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="20">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N2" s="21"/>
       <c r="O2" s="20"/>
@@ -10978,20 +10978,17 @@
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="19"/>
-      <c r="T2" s="22">
-        <v>43886.431944444441</v>
-      </c>
-      <c r="U2" t="s">
-        <v>3296</v>
-      </c>
-      <c r="V2" s="23" t="s">
+      <c r="U2"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="22">
+        <v>43886.848611111112</v>
+      </c>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="25" t="s">
         <v>3295</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
       <c r="Z2" s="22">
-        <v>43886.598611111112</v>
+        <v>43886.848611111112</v>
       </c>
       <c r="AA2" s="19" t="s">
         <v>3291</v>
@@ -11039,6 +11036,9 @@
       <formula1>INDIRECT($G3)</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="Y2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/data/unchecked/manual_collect/bahrain/BahrainCaseStatistics_20200225.xlsx
+++ b/data/unchecked/manual_collect/bahrain/BahrainCaseStatistics_20200225.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\25日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\COVID-19\data\unchecked\manual_collect\bahrain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10783,8 +10783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10953,10 +10953,10 @@
         <v>3290</v>
       </c>
       <c r="C2" s="22">
-        <v>43885.5</v>
+        <v>43886</v>
       </c>
       <c r="D2" s="22">
-        <v>43886.5</v>
+        <v>43887</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>3294</v>
